--- a/Tarun-annotations/MCRN_Q2_2019.xlsx
+++ b/Tarun-annotations/MCRN_Q2_2019.xlsx
@@ -1,37 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmand\Desktop\CS\VIP\SubjECTive-QA\Tarun-annotations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92820C87-A7D6-499D-AFC5-ED4D3C13B9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="10380" yWindow="2415" windowWidth="27540" windowHeight="16695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+  <si>
+    <t>Asker</t>
+  </si>
+  <si>
+    <t>Responder</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Assertive</t>
+  </si>
+  <si>
+    <t>Cautious</t>
+  </si>
+  <si>
+    <t>Optimistic</t>
+  </si>
+  <si>
+    <t>Specific</t>
+  </si>
+  <si>
+    <t>Relevant</t>
+  </si>
+  <si>
+    <t>Mike Halloran</t>
+  </si>
+  <si>
+    <t>Tom Goeke</t>
+  </si>
+  <si>
+    <t>So the commentary certainly sounded positive on the call here with – which would sounds like stabilizing trend sequentially, consistent with what you were thinking. Now I put that in the context of the orders, which were down a fair amount. Could you help reconcile those two? And I'm guessing, part of it is just the moving pieces with some of the portfolio moves. But, I certainly like to hear you reconcile those two data points?</t>
+  </si>
+  <si>
+    <t>Sure. Thanks Mike. So largely the two issues that we see on the order side is timing within APPT both in India and in North America. The aftermarket is strong globally, sequential growth. Mold-Masters, all regions, all product lines in order, and then I would say in fluids where we have, let's say, as Bruce mentioned, we had a bit of hold back because of material shortage, but on the flip side, I would say, other regions performing well, Europe bit behind in fluids. So largely on the order side it's timing in APPT in North America and India. India is really a result of the elections, but we have a super pipeline both in equipment and also in retrofit. So we feel good about the forecast forward and guidance, but we do see that's where it is in the figures.</t>
+  </si>
+  <si>
+    <t>And then just to put context on China here. It sounds like the trend line is sequentially improving each over the last couple of quarters. Maybe just talk about – a little bit about, what the environment feels like? What customers are saying to you in confidence that that's sustainable?</t>
+  </si>
+  <si>
+    <t>Well, it's definitely tough, right? We're slugging it out and part of it is winning new customers, part of it is new product development launch and then the balance is recurring business. So, what feels good about it is, the team is really loving to continue to pursue the orders has been successful to date, margins have stabilized and improved. So from all the input from the team, it feels really good. Like I said though, we're chasing orders. It's – I don't see it as a recovery. I see it as being in best position to win, but incrementally, it's a bit better.</t>
+  </si>
+  <si>
+    <t>Makes sense. Last one from my side. Revenue was a little bit below what we we're expecting, but the margins were really healthy. Maybe just talk a little bit about some of the drivers that drove the strong margin performance here? And then a few comment on just sustainability form where we are today?</t>
+  </si>
+  <si>
+    <t>Sure. So on the top line; it was bit of a slip on customer side in APPT, in North America on shipments. And about – I think that's $1 million to $2 million also in India, same thing was because of our payment schedule delayed until Q3. So no loss of orders, just a [indiscernible] into our Q3 and customer driven. On the margin side, it feels really good and largely because of cost out, cost management and really doing a fair job of offsetting the tariff impact. So the team has done really well. That part is absolutely sustainable and we've had very good margin recovery and a little bit of the impact on margin comes from NPE in prior year.</t>
+  </si>
+  <si>
+    <t>Ken Newman</t>
+  </si>
+  <si>
+    <t>Bruce Chalmers</t>
+  </si>
+  <si>
+    <t>Hey, good morning, guys. Just wanted to start off with the free cash flow and Bruce, I just wanted to clarify, it sounds like you are reiterating the 2019 guidance from last quarter. Free cash flow was a little bit weaker in the quarter than anticipated, but is it still right to model about $90 million $100 million target?</t>
+  </si>
+  <si>
+    <t>Correct. We're on track. If you take a look at where we are, it's a little bit of a timing and working capital, but we're running at about 24% working capital as a percent of sales. We know we can get that back to 20% at the end of the year. It's just the timing of inventory flow, inventory build for shipments later in the year. So we're tracking well to hit that guidance and have no problem reiterating and reaffirming that number.</t>
+  </si>
+  <si>
+    <t>Got it. And then, as a follow-up to that, just trying to think about capacity, how you see manufacturing capacity for the company today and the needs for going forward. Do you foresee any kind of large capital expenditure in the future to kind of help you grow into new capacity that you might need? Or do you feel that with all the uncertainty in the market today that you might have to hold off on any kind of growth expenditures?</t>
+  </si>
+  <si>
+    <t>Well, based on – it’s Tom. Good morning. So coming out of 2018, and especially if you look back to the first half of the year, that's sort of the capacity in the business, which is significantly different than sales in Q4 – I'm sorry, in Q1 and Q2. So just from a capacity point of view within the company, it's healthy. In terms of capital investment where we focused presently and into this year will be in two areas. One is, where we can invest in certain aged equipment to get productivity and, let's say, automation, and then on existing processes, both in our Mold-Masters business and in machining and APPT, we're looking at automation and that really is advantageous. Since when we're – at a period when we're in a very high utilization time, we really can't even take the time to take equipment down, even doing the automation or to take aged equipment now to put automated equipment in. So we'll take advantage of some of that, which is, I would say, a modest investment, certainly not at the level of capital that we spent in prior year. So a modest investment in 2019 for – as I've said, some updates and automation.</t>
+  </si>
+  <si>
+    <t>That's helpful. One last one from me, it was helpful to hear some of the commentary on the orders through the quarter. I'm just curious, have the order inquiries been just as strong or maintaining that trend throughout July. And just try and help us think about what you're expecting for order cadence into the back half, understanding that you're still expecting a stronger second half relative to the first half?</t>
+  </si>
+  <si>
+    <t>It's been pretty much consistent – excuse me and I would say that the pipeline is really solid. There is a couple of large orders sitting for us and that's not only in new equipment and Mold-Masters, but also, as I mentioned, in retrofit and rebuild. So the pipeline is solid.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +135,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,238 +459,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Asker</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Responder</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Answer</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Clear</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Assertive</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Cautious</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Optimistic</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Specific</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Relevant</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Mike Halloran</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Tom Goeke</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>So the commentary certainly sounded positive on the call here with – which would sounds like stabilizing trend sequentially, consistent with what you were thinking. Now I put that in the context of the orders, which were down a fair amount. Could you help reconcile those two? And I'm guessing, part of it is just the moving pieces with some of the portfolio moves. But, I certainly like to hear you reconcile those two data points?</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Sure. Thanks Mike. So largely the two issues that we see on the order side is timing within APPT both in India and in North America. The aftermarket is strong globally, sequential growth. Mold-Masters, all regions, all product lines in order, and then I would say in fluids where we have, let's say, as Bruce mentioned, we had a bit of hold back because of material shortage, but on the flip side, I would say, other regions performing well, Europe bit behind in fluids. So largely on the order side it's timing in APPT in North America and India. India is really a result of the elections, but we have a super pipeline both in equipment and also in retrofit. So we feel good about the forecast forward and guidance, but we do see that's where it is in the figures.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Mike Halloran</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tom Goeke</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>And then just to put context on China here. It sounds like the trend line is sequentially improving each over the last couple of quarters. Maybe just talk about – a little bit about, what the environment feels like? What customers are saying to you in confidence that that's sustainable?</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Well, it's definitely tough, right? We're slugging it out and part of it is winning new customers, part of it is new product development launch and then the balance is recurring business. So, what feels good about it is, the team is really loving to continue to pursue the orders has been successful to date, margins have stabilized and improved. So from all the input from the team, it feels really good. Like I said though, we're chasing orders. It's – I don't see it as a recovery. I see it as being in best position to win, but incrementally, it's a bit better.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mike Halloran</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Tom Goeke</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Makes sense. Last one from my side. Revenue was a little bit below what we we're expecting, but the margins were really healthy. Maybe just talk a little bit about some of the drivers that drove the strong margin performance here? And then a few comment on just sustainability form where we are today?</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sure. So on the top line; it was bit of a slip on customer side in APPT, in North America on shipments. And about – I think that's $1 million to $2 million also in India, same thing was because of our payment schedule delayed until Q3. So no loss of orders, just a [indiscernible] into our Q3 and customer driven. On the margin side, it feels really good and largely because of cost out, cost management and really doing a fair job of offsetting the tariff impact. So the team has done really well. That part is absolutely sustainable and we've had very good margin recovery and a little bit of the impact on margin comes from NPE in prior year.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ken Newman</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bruce Chalmers</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Hey, good morning, guys. Just wanted to start off with the free cash flow and Bruce, I just wanted to clarify, it sounds like you are reiterating the 2019 guidance from last quarter. Free cash flow was a little bit weaker in the quarter than anticipated, but is it still right to model about $90 million $100 million target?</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Correct. We're on track. If you take a look at where we are, it's a little bit of a timing and working capital, but we're running at about 24% working capital as a percent of sales. We know we can get that back to 20% at the end of the year. It's just the timing of inventory flow, inventory build for shipments later in the year. So we're tracking well to hit that guidance and have no problem reiterating and reaffirming that number.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Ken Newman</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tom Goeke</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Got it. And then, as a follow-up to that, just trying to think about capacity, how you see manufacturing capacity for the company today and the needs for going forward. Do you foresee any kind of large capital expenditure in the future to kind of help you grow into new capacity that you might need? Or do you feel that with all the uncertainty in the market today that you might have to hold off on any kind of growth expenditures?</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Well, based on – it’s Tom. Good morning. So coming out of 2018, and especially if you look back to the first half of the year, that's sort of the capacity in the business, which is significantly different than sales in Q4 – I'm sorry, in Q1 and Q2. So just from a capacity point of view within the company, it's healthy. In terms of capital investment where we focused presently and into this year will be in two areas. One is, where we can invest in certain aged equipment to get productivity and, let's say, automation, and then on existing processes, both in our Mold-Masters business and in machining and APPT, we're looking at automation and that really is advantageous. Since when we're – at a period when we're in a very high utilization time, we really can't even take the time to take equipment down, even doing the automation or to take aged equipment now to put automated equipment in. So we'll take advantage of some of that, which is, I would say, a modest investment, certainly not at the level of capital that we spent in prior year. So a modest investment in 2019 for – as I've said, some updates and automation.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Ken Newman</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Tom Goeke</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>That's helpful. One last one from me, it was helpful to hear some of the commentary on the orders through the quarter. I'm just curious, have the order inquiries been just as strong or maintaining that trend throughout July. And just try and help us think about what you're expecting for order cadence into the back half, understanding that you're still expecting a stronger second half relative to the first half?</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>It's been pretty much consistent – excuse me and I would say that the pipeline is really solid. There is a couple of large orders sitting for us and that's not only in new equipment and Mold-Masters, but also, as I mentioned, in retrofit and rebuild. So the pipeline is solid.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
